--- a/Data/orangehrm/OrangeHRM.xlsx
+++ b/Data/orangehrm/OrangeHRM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassenehadjour/Desktop/web-automation-framework-team-6/src/test/java/testdocumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassenehadjour/Desktop/web-automation-framework-team-6/Data/orangehrm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4651CB-D66C-3B48-9261-C59CEECE7374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02674614-8A41-0E41-BA64-5A6445E37311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{3DE73D70-11F4-E04F-B260-12334882B35D}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>Reset Password Link sent to email</t>
   </si>
   <si>
-    <t>"Reset Password link sent successfully"</t>
+    <t>Reset Password link sent successfully</t>
   </si>
 </sst>
 </file>

--- a/Data/orangehrm/OrangeHRM.xlsx
+++ b/Data/orangehrm/OrangeHRM.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassenehadjour/Desktop/web-automation-framework-team-6/Data/orangehrm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02674614-8A41-0E41-BA64-5A6445E37311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D85DD-A2CC-574C-960F-77E5F05F089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{3DE73D70-11F4-E04F-B260-12334882B35D}"/>
+    <workbookView xWindow="1160" yWindow="720" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{3DE73D70-11F4-E04F-B260-12334882B35D}"/>
   </bookViews>
   <sheets>
     <sheet name="FinalSeleniumBootcamp" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
     <sheet name="AdminPage" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
-  <si>
-    <t>selenium</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>TestScenario</t>
   </si>
@@ -80,12 +78,6 @@
     <t>Click On Reset Password Button</t>
   </si>
   <si>
-    <t>User name typed</t>
-  </si>
-  <si>
-    <t>Password typed</t>
-  </si>
-  <si>
     <t>Login to Orange HRM demo Website</t>
   </si>
   <si>
@@ -96,16 +88,216 @@
   </si>
   <si>
     <t>Reset Password link sent successfully</t>
+  </si>
+  <si>
+    <t>Navigate to Admin Page</t>
+  </si>
+  <si>
+    <t>select Admin from UsersRole drop down</t>
+  </si>
+  <si>
+    <t>select enable from Status drop down</t>
+  </si>
+  <si>
+    <t>click search button</t>
+  </si>
+  <si>
+    <t>click edit button</t>
+  </si>
+  <si>
+    <t>check if change Password check box is available</t>
+  </si>
+  <si>
+    <t>Admin Page Popup</t>
+  </si>
+  <si>
+    <t>Admin selected from drop down</t>
+  </si>
+  <si>
+    <t>Enable selected from drop down</t>
+  </si>
+  <si>
+    <t>Search starts</t>
+  </si>
+  <si>
+    <t>Edit button clicked</t>
+  </si>
+  <si>
+    <t>Check box available and clickable</t>
+  </si>
+  <si>
+    <t>Projecr name</t>
+  </si>
+  <si>
+    <t>Modul name</t>
+  </si>
+  <si>
+    <t>Created by</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>Reviewed by</t>
+  </si>
+  <si>
+    <t>Reviewed date</t>
+  </si>
+  <si>
+    <t>https://www.orangehrm.com/</t>
+  </si>
+  <si>
+    <t>16/01/2023</t>
+  </si>
+  <si>
+    <t>PeopleNTech</t>
+  </si>
+  <si>
+    <t>web-automation-framework</t>
+  </si>
+  <si>
+    <t>Hassene Hadjour
+Team 6</t>
+  </si>
+  <si>
+    <t>.. / .. / ..</t>
+  </si>
+  <si>
+    <t>Navigate to HomePage</t>
+  </si>
+  <si>
+    <t>Click On Buzz</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
+    <t>click on Share Photo button</t>
+  </si>
+  <si>
+    <t>write post text</t>
+  </si>
+  <si>
+    <t>Beautiful Nature</t>
+  </si>
+  <si>
+    <t>upload the pic</t>
+  </si>
+  <si>
+    <t>click on Share</t>
+  </si>
+  <si>
+    <t>catch success message</t>
+  </si>
+  <si>
+    <t>Success Toast message</t>
+  </si>
+  <si>
+    <t>HomePage PopUp</t>
+  </si>
+  <si>
+    <t>BuzzPage oppens</t>
+  </si>
+  <si>
+    <t>Upload area pops up</t>
+  </si>
+  <si>
+    <t>input taken</t>
+  </si>
+  <si>
+    <t>picture uploaded</t>
+  </si>
+  <si>
+    <t>posted publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the availability and factioning of a
+ reset password check box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set invalid username </t>
+  </si>
+  <si>
+    <t>Set invalid password</t>
+  </si>
+  <si>
+    <t>Set valid password</t>
+  </si>
+  <si>
+    <t>Set valid username</t>
+  </si>
+  <si>
+    <t>Login with invalid username and invalid password</t>
+  </si>
+  <si>
+    <t>Login with invalid username and valid password</t>
+  </si>
+  <si>
+    <t>Login with valid username and invalid password</t>
+  </si>
+  <si>
+    <t>Invalid credentials error message</t>
+  </si>
+  <si>
+    <t>Valid password set</t>
+  </si>
+  <si>
+    <t>Valid username set</t>
+  </si>
+  <si>
+    <t>Invalid password set</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid username set</t>
+  </si>
+  <si>
+    <t>User name set</t>
+  </si>
+  <si>
+    <t>Password set</t>
+  </si>
+  <si>
+    <t>Username set</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,15 +309,39 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,20 +401,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -207,14 +415,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -226,8 +478,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -241,6 +515,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>706973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74987033-33EE-FAED-379D-B5E7238E35EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9743015" y="2791888"/>
+          <a:ext cx="630770" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,35 +869,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCB6083-834C-C74C-9C02-EE76B8ACC3D4}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="2:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{DA6B75D2-019D-DB4F-BB3C-8E312E6544F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A00966-4455-0C47-9081-DAD4168DF904}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
@@ -609,165 +1002,291 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -777,7 +1296,7 @@
   <dimension ref="B5:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,68 +1309,68 @@
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8"/>
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -875,98 +1394,256 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6AEE5D-AB26-904B-87C9-75A28712E29E}">
   <dimension ref="B5:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E4:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="26"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BA6A8-75B3-6548-AE6E-629E509C2EE0}">
+  <dimension ref="B5:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/orangehrm/OrangeHRM.xlsx
+++ b/Data/orangehrm/OrangeHRM.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassenehadjour/Desktop/web-automation-framework-team-6/Data/orangehrm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D85DD-A2CC-574C-960F-77E5F05F089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054DE360-CA17-1A4A-8F67-82B1BEF270C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="720" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{3DE73D70-11F4-E04F-B260-12334882B35D}"/>
+    <workbookView xWindow="1200" yWindow="720" windowWidth="27600" windowHeight="16940" activeTab="1" xr2:uid="{3DE73D70-11F4-E04F-B260-12334882B35D}"/>
   </bookViews>
   <sheets>
     <sheet name="FinalSeleniumBootcamp" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
     <sheet name="AdminPage" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="MyInfoPage" sheetId="6" r:id="rId5"/>
+    <sheet name="BuzzPage" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="158">
   <si>
     <t>TestScenario</t>
   </si>
@@ -261,13 +262,275 @@
   </si>
   <si>
     <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>TC_OH_003</t>
+  </si>
+  <si>
+    <t>TC_OH_004</t>
+  </si>
+  <si>
+    <t>TC_OH_005</t>
+  </si>
+  <si>
+    <t>TC_OH_006</t>
+  </si>
+  <si>
+    <t>TC_OH_007</t>
+  </si>
+  <si>
+    <t>TC_OH_008</t>
+  </si>
+  <si>
+    <t>TC_OH_009</t>
+  </si>
+  <si>
+    <t>As a valid user I should be able to click on 
+Linkedin Icon Link</t>
+  </si>
+  <si>
+    <t>TC_OH_010</t>
+  </si>
+  <si>
+    <t>As a valid user I should be able to click on 
+Facebook Icon Link</t>
+  </si>
+  <si>
+    <t>As a valid user I should be able to click on 
+Youtube Icon Link</t>
+  </si>
+  <si>
+    <t>As a valid user I should be able to click on 
+Tweeter Icon Link</t>
+  </si>
+  <si>
+    <t>As a valid user I should be able to click on 
+OrangeHRM Icon Link</t>
+  </si>
+  <si>
+    <t>Navigate to LoginPage</t>
+  </si>
+  <si>
+    <t>Click on Linkedin Icon Link</t>
+  </si>
+  <si>
+    <t>Click on Facebook Icon Link</t>
+  </si>
+  <si>
+    <t>Click on Tweeter Icon Link</t>
+  </si>
+  <si>
+    <t>Click on Youtube Icon Link</t>
+  </si>
+  <si>
+    <t>Click on OrangeHRM Icon Link</t>
+  </si>
+  <si>
+    <t>Land on OrangeHRM LoginPage</t>
+  </si>
+  <si>
+    <t>Linkdin page opens in a new window</t>
+  </si>
+  <si>
+    <t>Facebookpage opens in a new window</t>
+  </si>
+  <si>
+    <t>Tweeter page opens in a new window</t>
+  </si>
+  <si>
+    <t>Youtube page opens in a new window</t>
+  </si>
+  <si>
+    <t>OrageHRM page opens in a new window</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Most Popular Opensource HRIS</t>
+  </si>
+  <si>
+    <t>Tweeter</t>
+  </si>
+  <si>
+    <t>OrangeHRM</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>http://www.orangehrm.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Navigate Admin from menu</t>
+  </si>
+  <si>
+    <t>Navigate PIM from menu</t>
+  </si>
+  <si>
+    <t>Navigate Leave from menu</t>
+  </si>
+  <si>
+    <t>Navigate Time from menu</t>
+  </si>
+  <si>
+    <t>Navigate Recruitment from menu</t>
+  </si>
+  <si>
+    <t>Navigate Performance from menu</t>
+  </si>
+  <si>
+    <t>Navigate Directory from menu</t>
+  </si>
+  <si>
+    <t>Navigate Buzz from menu</t>
+  </si>
+  <si>
+    <t>Navigate to Homepage</t>
+  </si>
+  <si>
+    <t>Click on Admin</t>
+  </si>
+  <si>
+    <t>Click on PIM</t>
+  </si>
+  <si>
+    <t>Click on Leave</t>
+  </si>
+  <si>
+    <t>Click on Time</t>
+  </si>
+  <si>
+    <t>Click on Recuitment</t>
+  </si>
+  <si>
+    <t>Click on Performance</t>
+  </si>
+  <si>
+    <t>Click on Dashbord</t>
+  </si>
+  <si>
+    <t>Click on Directory</t>
+  </si>
+  <si>
+    <t>Click on Buzz</t>
+  </si>
+  <si>
+    <t>Land on HomePage</t>
+  </si>
+  <si>
+    <t>Land on AdminPage</t>
+  </si>
+  <si>
+    <t>Land on PimPage</t>
+  </si>
+  <si>
+    <t>Land on LeavePage</t>
+  </si>
+  <si>
+    <t>Land on TimePage</t>
+  </si>
+  <si>
+    <t>Land on RecruitmentPage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Land on PerformancePage</t>
+  </si>
+  <si>
+    <t>Land on DirectoryPage</t>
+  </si>
+  <si>
+    <t>Land on BuzzPage</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>As a valid user I should be able to Post 
+an Image in Buzz Page</t>
+  </si>
+  <si>
+    <t>Click on my Info</t>
+  </si>
+  <si>
+    <t>Select blood type from dropedown</t>
+  </si>
+  <si>
+    <t>click on save</t>
+  </si>
+  <si>
+    <t>Capture toast message</t>
+  </si>
+  <si>
+    <t>Successful login</t>
+  </si>
+  <si>
+    <t>Login to OrangeHRM</t>
+  </si>
+  <si>
+    <t>Land on MyInfoPage</t>
+  </si>
+  <si>
+    <t>Blood type selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toast message popup </t>
+  </si>
+  <si>
+    <t>Success toast message</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>My Info</t>
+  </si>
+  <si>
+    <t>As a valid admin I should be able to change
+ the blood type in MyInfoPage</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DashboardPage</t>
+  </si>
+  <si>
+    <t>Navigate Dashboard from menu</t>
+  </si>
+  <si>
+    <t>OrangeHRM HR Software | Free &amp; Open Source HR Software | HRMS | HRIS | OrangeHRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,8 +571,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +606,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,24 +753,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,62 +776,278 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,61 +1065,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76203</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>706973</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74987033-33EE-FAED-379D-B5E7238E35EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9743015" y="2791888"/>
-          <a:ext cx="630770" cy="863600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,64 +1377,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -951,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A00966-4455-0C47-9081-DAD4168DF904}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:FF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,12 +1457,12 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.83203125" customWidth="1"/>
     <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:162" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -975,7 +1470,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:162" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -983,7 +1478,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:162" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -991,7 +1486,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:162" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -999,283 +1494,4302 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:162" s="11" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="4" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="2"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+    </row>
+    <row r="8" spans="1:162" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="4" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="2"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8"/>
+      <c r="CI8"/>
+      <c r="CJ8"/>
+      <c r="CK8"/>
+      <c r="CL8"/>
+      <c r="CM8"/>
+      <c r="CN8"/>
+      <c r="CO8"/>
+      <c r="CP8"/>
+      <c r="CQ8"/>
+      <c r="CR8"/>
+      <c r="CS8"/>
+      <c r="CT8"/>
+      <c r="CU8"/>
+      <c r="CV8"/>
+      <c r="CW8"/>
+      <c r="CX8"/>
+      <c r="CY8"/>
+      <c r="CZ8"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+      <c r="DR8"/>
+      <c r="DS8"/>
+      <c r="DT8"/>
+      <c r="DU8"/>
+      <c r="DV8"/>
+      <c r="DW8"/>
+      <c r="DX8"/>
+      <c r="DY8"/>
+      <c r="DZ8"/>
+      <c r="EA8"/>
+      <c r="EB8"/>
+      <c r="EC8"/>
+      <c r="ED8"/>
+      <c r="EE8"/>
+      <c r="EF8"/>
+      <c r="EG8"/>
+      <c r="EH8"/>
+      <c r="EI8"/>
+      <c r="EJ8"/>
+      <c r="EK8"/>
+      <c r="EL8"/>
+      <c r="EM8"/>
+      <c r="EN8"/>
+      <c r="EO8"/>
+      <c r="EP8"/>
+      <c r="EQ8"/>
+      <c r="ER8"/>
+      <c r="ES8"/>
+      <c r="ET8"/>
+      <c r="EU8"/>
+      <c r="EV8"/>
+      <c r="EW8"/>
+      <c r="EX8"/>
+      <c r="EY8"/>
+      <c r="EZ8"/>
+      <c r="FA8"/>
+      <c r="FB8"/>
+      <c r="FC8"/>
+      <c r="FD8"/>
+      <c r="FE8"/>
+      <c r="FF8"/>
+    </row>
+    <row r="9" spans="1:162" s="11" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+      <c r="CQ9"/>
+      <c r="CR9"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
+      <c r="CU9"/>
+      <c r="CV9"/>
+      <c r="CW9"/>
+      <c r="CX9"/>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+      <c r="DR9"/>
+      <c r="DS9"/>
+      <c r="DT9"/>
+      <c r="DU9"/>
+      <c r="DV9"/>
+      <c r="DW9"/>
+      <c r="DX9"/>
+      <c r="DY9"/>
+      <c r="DZ9"/>
+      <c r="EA9"/>
+      <c r="EB9"/>
+      <c r="EC9"/>
+      <c r="ED9"/>
+      <c r="EE9"/>
+      <c r="EF9"/>
+      <c r="EG9"/>
+      <c r="EH9"/>
+      <c r="EI9"/>
+      <c r="EJ9"/>
+      <c r="EK9"/>
+      <c r="EL9"/>
+      <c r="EM9"/>
+      <c r="EN9"/>
+      <c r="EO9"/>
+      <c r="EP9"/>
+      <c r="EQ9"/>
+      <c r="ER9"/>
+      <c r="ES9"/>
+      <c r="ET9"/>
+      <c r="EU9"/>
+      <c r="EV9"/>
+      <c r="EW9"/>
+      <c r="EX9"/>
+      <c r="EY9"/>
+      <c r="EZ9"/>
+      <c r="FA9"/>
+      <c r="FB9"/>
+      <c r="FC9"/>
+      <c r="FD9"/>
+      <c r="FE9"/>
+      <c r="FF9"/>
+    </row>
+    <row r="10" spans="1:162" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="4" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="2"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
+      <c r="CF10"/>
+      <c r="CG10"/>
+      <c r="CH10"/>
+      <c r="CI10"/>
+      <c r="CJ10"/>
+      <c r="CK10"/>
+      <c r="CL10"/>
+      <c r="CM10"/>
+      <c r="CN10"/>
+      <c r="CO10"/>
+      <c r="CP10"/>
+      <c r="CQ10"/>
+      <c r="CR10"/>
+      <c r="CS10"/>
+      <c r="CT10"/>
+      <c r="CU10"/>
+      <c r="CV10"/>
+      <c r="CW10"/>
+      <c r="CX10"/>
+      <c r="CY10"/>
+      <c r="CZ10"/>
+      <c r="DA10"/>
+      <c r="DB10"/>
+      <c r="DC10"/>
+      <c r="DD10"/>
+      <c r="DE10"/>
+      <c r="DF10"/>
+      <c r="DG10"/>
+      <c r="DH10"/>
+      <c r="DI10"/>
+      <c r="DJ10"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+      <c r="DR10"/>
+      <c r="DS10"/>
+      <c r="DT10"/>
+      <c r="DU10"/>
+      <c r="DV10"/>
+      <c r="DW10"/>
+      <c r="DX10"/>
+      <c r="DY10"/>
+      <c r="DZ10"/>
+      <c r="EA10"/>
+      <c r="EB10"/>
+      <c r="EC10"/>
+      <c r="ED10"/>
+      <c r="EE10"/>
+      <c r="EF10"/>
+      <c r="EG10"/>
+      <c r="EH10"/>
+      <c r="EI10"/>
+      <c r="EJ10"/>
+      <c r="EK10"/>
+      <c r="EL10"/>
+      <c r="EM10"/>
+      <c r="EN10"/>
+      <c r="EO10"/>
+      <c r="EP10"/>
+      <c r="EQ10"/>
+      <c r="ER10"/>
+      <c r="ES10"/>
+      <c r="ET10"/>
+      <c r="EU10"/>
+      <c r="EV10"/>
+      <c r="EW10"/>
+      <c r="EX10"/>
+      <c r="EY10"/>
+      <c r="EZ10"/>
+      <c r="FA10"/>
+      <c r="FB10"/>
+      <c r="FC10"/>
+      <c r="FD10"/>
+      <c r="FE10"/>
+      <c r="FF10"/>
+    </row>
+    <row r="11" spans="1:162" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="4" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="2"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
+      <c r="CL11"/>
+      <c r="CM11"/>
+      <c r="CN11"/>
+      <c r="CO11"/>
+      <c r="CP11"/>
+      <c r="CQ11"/>
+      <c r="CR11"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
+      <c r="CU11"/>
+      <c r="CV11"/>
+      <c r="CW11"/>
+      <c r="CX11"/>
+      <c r="CY11"/>
+      <c r="CZ11"/>
+      <c r="DA11"/>
+      <c r="DB11"/>
+      <c r="DC11"/>
+      <c r="DD11"/>
+      <c r="DE11"/>
+      <c r="DF11"/>
+      <c r="DG11"/>
+      <c r="DH11"/>
+      <c r="DI11"/>
+      <c r="DJ11"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+      <c r="DR11"/>
+      <c r="DS11"/>
+      <c r="DT11"/>
+      <c r="DU11"/>
+      <c r="DV11"/>
+      <c r="DW11"/>
+      <c r="DX11"/>
+      <c r="DY11"/>
+      <c r="DZ11"/>
+      <c r="EA11"/>
+      <c r="EB11"/>
+      <c r="EC11"/>
+      <c r="ED11"/>
+      <c r="EE11"/>
+      <c r="EF11"/>
+      <c r="EG11"/>
+      <c r="EH11"/>
+      <c r="EI11"/>
+      <c r="EJ11"/>
+      <c r="EK11"/>
+      <c r="EL11"/>
+      <c r="EM11"/>
+      <c r="EN11"/>
+      <c r="EO11"/>
+      <c r="EP11"/>
+      <c r="EQ11"/>
+      <c r="ER11"/>
+      <c r="ES11"/>
+      <c r="ET11"/>
+      <c r="EU11"/>
+      <c r="EV11"/>
+      <c r="EW11"/>
+      <c r="EX11"/>
+      <c r="EY11"/>
+      <c r="EZ11"/>
+      <c r="FA11"/>
+      <c r="FB11"/>
+      <c r="FC11"/>
+      <c r="FD11"/>
+      <c r="FE11"/>
+      <c r="FF11"/>
+    </row>
+    <row r="12" spans="1:162" s="14" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+      <c r="ED12"/>
+      <c r="EE12"/>
+      <c r="EF12"/>
+      <c r="EG12"/>
+      <c r="EH12"/>
+      <c r="EI12"/>
+      <c r="EJ12"/>
+      <c r="EK12"/>
+      <c r="EL12"/>
+      <c r="EM12"/>
+      <c r="EN12"/>
+      <c r="EO12"/>
+      <c r="EP12"/>
+      <c r="EQ12"/>
+      <c r="ER12"/>
+      <c r="ES12"/>
+      <c r="ET12"/>
+      <c r="EU12"/>
+      <c r="EV12"/>
+      <c r="EW12"/>
+      <c r="EX12"/>
+      <c r="EY12"/>
+      <c r="EZ12"/>
+      <c r="FA12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
+      <c r="FD12"/>
+      <c r="FE12"/>
+      <c r="FF12"/>
+    </row>
+    <row r="13" spans="1:162" s="17" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="4" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="2"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
+      <c r="EG13"/>
+      <c r="EH13"/>
+      <c r="EI13"/>
+      <c r="EJ13"/>
+      <c r="EK13"/>
+      <c r="EL13"/>
+      <c r="EM13"/>
+      <c r="EN13"/>
+      <c r="EO13"/>
+      <c r="EP13"/>
+      <c r="EQ13"/>
+      <c r="ER13"/>
+      <c r="ES13"/>
+      <c r="ET13"/>
+      <c r="EU13"/>
+      <c r="EV13"/>
+      <c r="EW13"/>
+      <c r="EX13"/>
+      <c r="EY13"/>
+      <c r="EZ13"/>
+      <c r="FA13"/>
+      <c r="FB13"/>
+      <c r="FC13"/>
+      <c r="FD13"/>
+      <c r="FE13"/>
+      <c r="FF13"/>
+    </row>
+    <row r="14" spans="1:162" s="17" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="4" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="2"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
+      <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
+      <c r="CI14"/>
+      <c r="CJ14"/>
+      <c r="CK14"/>
+      <c r="CL14"/>
+      <c r="CM14"/>
+      <c r="CN14"/>
+      <c r="CO14"/>
+      <c r="CP14"/>
+      <c r="CQ14"/>
+      <c r="CR14"/>
+      <c r="CS14"/>
+      <c r="CT14"/>
+      <c r="CU14"/>
+      <c r="CV14"/>
+      <c r="CW14"/>
+      <c r="CX14"/>
+      <c r="CY14"/>
+      <c r="CZ14"/>
+      <c r="DA14"/>
+      <c r="DB14"/>
+      <c r="DC14"/>
+      <c r="DD14"/>
+      <c r="DE14"/>
+      <c r="DF14"/>
+      <c r="DG14"/>
+      <c r="DH14"/>
+      <c r="DI14"/>
+      <c r="DJ14"/>
+      <c r="DK14"/>
+      <c r="DL14"/>
+      <c r="DM14"/>
+      <c r="DN14"/>
+      <c r="DO14"/>
+      <c r="DP14"/>
+      <c r="DQ14"/>
+      <c r="DR14"/>
+      <c r="DS14"/>
+      <c r="DT14"/>
+      <c r="DU14"/>
+      <c r="DV14"/>
+      <c r="DW14"/>
+      <c r="DX14"/>
+      <c r="DY14"/>
+      <c r="DZ14"/>
+      <c r="EA14"/>
+      <c r="EB14"/>
+      <c r="EC14"/>
+      <c r="ED14"/>
+      <c r="EE14"/>
+      <c r="EF14"/>
+      <c r="EG14"/>
+      <c r="EH14"/>
+      <c r="EI14"/>
+      <c r="EJ14"/>
+      <c r="EK14"/>
+      <c r="EL14"/>
+      <c r="EM14"/>
+      <c r="EN14"/>
+      <c r="EO14"/>
+      <c r="EP14"/>
+      <c r="EQ14"/>
+      <c r="ER14"/>
+      <c r="ES14"/>
+      <c r="ET14"/>
+      <c r="EU14"/>
+      <c r="EV14"/>
+      <c r="EW14"/>
+      <c r="EX14"/>
+      <c r="EY14"/>
+      <c r="EZ14"/>
+      <c r="FA14"/>
+      <c r="FB14"/>
+      <c r="FC14"/>
+      <c r="FD14"/>
+      <c r="FE14"/>
+      <c r="FF14"/>
+    </row>
+    <row r="15" spans="1:162" s="17" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+      <c r="BM15"/>
+      <c r="BN15"/>
+      <c r="BO15"/>
+      <c r="BP15"/>
+      <c r="BQ15"/>
+      <c r="BR15"/>
+      <c r="BS15"/>
+      <c r="BT15"/>
+      <c r="BU15"/>
+      <c r="BV15"/>
+      <c r="BW15"/>
+      <c r="BX15"/>
+      <c r="BY15"/>
+      <c r="BZ15"/>
+      <c r="CA15"/>
+      <c r="CB15"/>
+      <c r="CC15"/>
+      <c r="CD15"/>
+      <c r="CE15"/>
+      <c r="CF15"/>
+      <c r="CG15"/>
+      <c r="CH15"/>
+      <c r="CI15"/>
+      <c r="CJ15"/>
+      <c r="CK15"/>
+      <c r="CL15"/>
+      <c r="CM15"/>
+      <c r="CN15"/>
+      <c r="CO15"/>
+      <c r="CP15"/>
+      <c r="CQ15"/>
+      <c r="CR15"/>
+      <c r="CS15"/>
+      <c r="CT15"/>
+      <c r="CU15"/>
+      <c r="CV15"/>
+      <c r="CW15"/>
+      <c r="CX15"/>
+      <c r="CY15"/>
+      <c r="CZ15"/>
+      <c r="DA15"/>
+      <c r="DB15"/>
+      <c r="DC15"/>
+      <c r="DD15"/>
+      <c r="DE15"/>
+      <c r="DF15"/>
+      <c r="DG15"/>
+      <c r="DH15"/>
+      <c r="DI15"/>
+      <c r="DJ15"/>
+      <c r="DK15"/>
+      <c r="DL15"/>
+      <c r="DM15"/>
+      <c r="DN15"/>
+      <c r="DO15"/>
+      <c r="DP15"/>
+      <c r="DQ15"/>
+      <c r="DR15"/>
+      <c r="DS15"/>
+      <c r="DT15"/>
+      <c r="DU15"/>
+      <c r="DV15"/>
+      <c r="DW15"/>
+      <c r="DX15"/>
+      <c r="DY15"/>
+      <c r="DZ15"/>
+      <c r="EA15"/>
+      <c r="EB15"/>
+      <c r="EC15"/>
+      <c r="ED15"/>
+      <c r="EE15"/>
+      <c r="EF15"/>
+      <c r="EG15"/>
+      <c r="EH15"/>
+      <c r="EI15"/>
+      <c r="EJ15"/>
+      <c r="EK15"/>
+      <c r="EL15"/>
+      <c r="EM15"/>
+      <c r="EN15"/>
+      <c r="EO15"/>
+      <c r="EP15"/>
+      <c r="EQ15"/>
+      <c r="ER15"/>
+      <c r="ES15"/>
+      <c r="ET15"/>
+      <c r="EU15"/>
+      <c r="EV15"/>
+      <c r="EW15"/>
+      <c r="EX15"/>
+      <c r="EY15"/>
+      <c r="EZ15"/>
+      <c r="FA15"/>
+      <c r="FB15"/>
+      <c r="FC15"/>
+      <c r="FD15"/>
+      <c r="FE15"/>
+      <c r="FF15"/>
+    </row>
+    <row r="16" spans="1:162" s="19" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="4" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="2"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16"/>
+      <c r="BN16"/>
+      <c r="BO16"/>
+      <c r="BP16"/>
+      <c r="BQ16"/>
+      <c r="BR16"/>
+      <c r="BS16"/>
+      <c r="BT16"/>
+      <c r="BU16"/>
+      <c r="BV16"/>
+      <c r="BW16"/>
+      <c r="BX16"/>
+      <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
+      <c r="CG16"/>
+      <c r="CH16"/>
+      <c r="CI16"/>
+      <c r="CJ16"/>
+      <c r="CK16"/>
+      <c r="CL16"/>
+      <c r="CM16"/>
+      <c r="CN16"/>
+      <c r="CO16"/>
+      <c r="CP16"/>
+      <c r="CQ16"/>
+      <c r="CR16"/>
+      <c r="CS16"/>
+      <c r="CT16"/>
+      <c r="CU16"/>
+      <c r="CV16"/>
+      <c r="CW16"/>
+      <c r="CX16"/>
+      <c r="CY16"/>
+      <c r="CZ16"/>
+      <c r="DA16"/>
+      <c r="DB16"/>
+      <c r="DC16"/>
+      <c r="DD16"/>
+      <c r="DE16"/>
+      <c r="DF16"/>
+      <c r="DG16"/>
+      <c r="DH16"/>
+      <c r="DI16"/>
+      <c r="DJ16"/>
+      <c r="DK16"/>
+      <c r="DL16"/>
+      <c r="DM16"/>
+      <c r="DN16"/>
+      <c r="DO16"/>
+      <c r="DP16"/>
+      <c r="DQ16"/>
+      <c r="DR16"/>
+      <c r="DS16"/>
+      <c r="DT16"/>
+      <c r="DU16"/>
+      <c r="DV16"/>
+      <c r="DW16"/>
+      <c r="DX16"/>
+      <c r="DY16"/>
+      <c r="DZ16"/>
+      <c r="EA16"/>
+      <c r="EB16"/>
+      <c r="EC16"/>
+      <c r="ED16"/>
+      <c r="EE16"/>
+      <c r="EF16"/>
+      <c r="EG16"/>
+      <c r="EH16"/>
+      <c r="EI16"/>
+      <c r="EJ16"/>
+      <c r="EK16"/>
+      <c r="EL16"/>
+      <c r="EM16"/>
+      <c r="EN16"/>
+      <c r="EO16"/>
+      <c r="EP16"/>
+      <c r="EQ16"/>
+      <c r="ER16"/>
+      <c r="ES16"/>
+      <c r="ET16"/>
+      <c r="EU16"/>
+      <c r="EV16"/>
+      <c r="EW16"/>
+      <c r="EX16"/>
+      <c r="EY16"/>
+      <c r="EZ16"/>
+      <c r="FA16"/>
+      <c r="FB16"/>
+      <c r="FC16"/>
+      <c r="FD16"/>
+      <c r="FE16"/>
+      <c r="FF16"/>
+    </row>
+    <row r="17" spans="1:162" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="4" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="2"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+      <c r="CJ17"/>
+      <c r="CK17"/>
+      <c r="CL17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CO17"/>
+      <c r="CP17"/>
+      <c r="CQ17"/>
+      <c r="CR17"/>
+      <c r="CS17"/>
+      <c r="CT17"/>
+      <c r="CU17"/>
+      <c r="CV17"/>
+      <c r="CW17"/>
+      <c r="CX17"/>
+      <c r="CY17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DB17"/>
+      <c r="DC17"/>
+      <c r="DD17"/>
+      <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17"/>
+      <c r="DH17"/>
+      <c r="DI17"/>
+      <c r="DJ17"/>
+      <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+      <c r="DP17"/>
+      <c r="DQ17"/>
+      <c r="DR17"/>
+      <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
+      <c r="EB17"/>
+      <c r="EC17"/>
+      <c r="ED17"/>
+      <c r="EE17"/>
+      <c r="EF17"/>
+      <c r="EG17"/>
+      <c r="EH17"/>
+      <c r="EI17"/>
+      <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
+      <c r="EN17"/>
+      <c r="EO17"/>
+      <c r="EP17"/>
+      <c r="EQ17"/>
+      <c r="ER17"/>
+      <c r="ES17"/>
+      <c r="ET17"/>
+      <c r="EU17"/>
+      <c r="EV17"/>
+      <c r="EW17"/>
+      <c r="EX17"/>
+      <c r="EY17"/>
+      <c r="EZ17"/>
+      <c r="FA17"/>
+      <c r="FB17"/>
+      <c r="FC17"/>
+      <c r="FD17"/>
+      <c r="FE17"/>
+      <c r="FF17"/>
+    </row>
+    <row r="18" spans="1:162" s="19" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
+      <c r="CI18"/>
+      <c r="CJ18"/>
+      <c r="CK18"/>
+      <c r="CL18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CO18"/>
+      <c r="CP18"/>
+      <c r="CQ18"/>
+      <c r="CR18"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
+      <c r="CU18"/>
+      <c r="CV18"/>
+      <c r="CW18"/>
+      <c r="CX18"/>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
+      <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+      <c r="DP18"/>
+      <c r="DQ18"/>
+      <c r="DR18"/>
+      <c r="DS18"/>
+      <c r="DT18"/>
+      <c r="DU18"/>
+      <c r="DV18"/>
+      <c r="DW18"/>
+      <c r="DX18"/>
+      <c r="DY18"/>
+      <c r="DZ18"/>
+      <c r="EA18"/>
+      <c r="EB18"/>
+      <c r="EC18"/>
+      <c r="ED18"/>
+      <c r="EE18"/>
+      <c r="EF18"/>
+      <c r="EG18"/>
+      <c r="EH18"/>
+      <c r="EI18"/>
+      <c r="EJ18"/>
+      <c r="EK18"/>
+      <c r="EL18"/>
+      <c r="EM18"/>
+      <c r="EN18"/>
+      <c r="EO18"/>
+      <c r="EP18"/>
+      <c r="EQ18"/>
+      <c r="ER18"/>
+      <c r="ES18"/>
+      <c r="ET18"/>
+      <c r="EU18"/>
+      <c r="EV18"/>
+      <c r="EW18"/>
+      <c r="EX18"/>
+      <c r="EY18"/>
+      <c r="EZ18"/>
+      <c r="FA18"/>
+      <c r="FB18"/>
+      <c r="FC18"/>
+      <c r="FD18"/>
+      <c r="FE18"/>
+      <c r="FF18"/>
+    </row>
+    <row r="19" spans="1:162" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="4" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="2"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
+      <c r="CJ19"/>
+      <c r="CK19"/>
+      <c r="CL19"/>
+      <c r="CM19"/>
+      <c r="CN19"/>
+      <c r="CO19"/>
+      <c r="CP19"/>
+      <c r="CQ19"/>
+      <c r="CR19"/>
+      <c r="CS19"/>
+      <c r="CT19"/>
+      <c r="CU19"/>
+      <c r="CV19"/>
+      <c r="CW19"/>
+      <c r="CX19"/>
+      <c r="CY19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DB19"/>
+      <c r="DC19"/>
+      <c r="DD19"/>
+      <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19"/>
+      <c r="DH19"/>
+      <c r="DI19"/>
+      <c r="DJ19"/>
+      <c r="DK19"/>
+      <c r="DL19"/>
+      <c r="DM19"/>
+      <c r="DN19"/>
+      <c r="DO19"/>
+      <c r="DP19"/>
+      <c r="DQ19"/>
+      <c r="DR19"/>
+      <c r="DS19"/>
+      <c r="DT19"/>
+      <c r="DU19"/>
+      <c r="DV19"/>
+      <c r="DW19"/>
+      <c r="DX19"/>
+      <c r="DY19"/>
+      <c r="DZ19"/>
+      <c r="EA19"/>
+      <c r="EB19"/>
+      <c r="EC19"/>
+      <c r="ED19"/>
+      <c r="EE19"/>
+      <c r="EF19"/>
+      <c r="EG19"/>
+      <c r="EH19"/>
+      <c r="EI19"/>
+      <c r="EJ19"/>
+      <c r="EK19"/>
+      <c r="EL19"/>
+      <c r="EM19"/>
+      <c r="EN19"/>
+      <c r="EO19"/>
+      <c r="EP19"/>
+      <c r="EQ19"/>
+      <c r="ER19"/>
+      <c r="ES19"/>
+      <c r="ET19"/>
+      <c r="EU19"/>
+      <c r="EV19"/>
+      <c r="EW19"/>
+      <c r="EX19"/>
+      <c r="EY19"/>
+      <c r="EZ19"/>
+      <c r="FA19"/>
+      <c r="FB19"/>
+      <c r="FC19"/>
+      <c r="FD19"/>
+      <c r="FE19"/>
+      <c r="FF19"/>
+    </row>
+    <row r="20" spans="1:162" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="4" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="2"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20"/>
+      <c r="CT20"/>
+      <c r="CU20"/>
+      <c r="CV20"/>
+      <c r="CW20"/>
+      <c r="CX20"/>
+      <c r="CY20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DB20"/>
+      <c r="DC20"/>
+      <c r="DD20"/>
+      <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20"/>
+      <c r="DH20"/>
+      <c r="DI20"/>
+      <c r="DJ20"/>
+      <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+      <c r="DP20"/>
+      <c r="DQ20"/>
+      <c r="DR20"/>
+      <c r="DS20"/>
+      <c r="DT20"/>
+      <c r="DU20"/>
+      <c r="DV20"/>
+      <c r="DW20"/>
+      <c r="DX20"/>
+      <c r="DY20"/>
+      <c r="DZ20"/>
+      <c r="EA20"/>
+      <c r="EB20"/>
+      <c r="EC20"/>
+      <c r="ED20"/>
+      <c r="EE20"/>
+      <c r="EF20"/>
+      <c r="EG20"/>
+      <c r="EH20"/>
+      <c r="EI20"/>
+      <c r="EJ20"/>
+      <c r="EK20"/>
+      <c r="EL20"/>
+      <c r="EM20"/>
+      <c r="EN20"/>
+      <c r="EO20"/>
+      <c r="EP20"/>
+      <c r="EQ20"/>
+      <c r="ER20"/>
+      <c r="ES20"/>
+      <c r="ET20"/>
+      <c r="EU20"/>
+      <c r="EV20"/>
+      <c r="EW20"/>
+      <c r="EX20"/>
+      <c r="EY20"/>
+      <c r="EZ20"/>
+      <c r="FA20"/>
+      <c r="FB20"/>
+      <c r="FC20"/>
+      <c r="FD20"/>
+      <c r="FE20"/>
+      <c r="FF20"/>
+    </row>
+    <row r="21" spans="1:162" s="21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21"/>
+      <c r="CF21"/>
+      <c r="CG21"/>
+      <c r="CH21"/>
+      <c r="CI21"/>
+      <c r="CJ21"/>
+      <c r="CK21"/>
+      <c r="CL21"/>
+      <c r="CM21"/>
+      <c r="CN21"/>
+      <c r="CO21"/>
+      <c r="CP21"/>
+      <c r="CQ21"/>
+      <c r="CR21"/>
+      <c r="CS21"/>
+      <c r="CT21"/>
+      <c r="CU21"/>
+      <c r="CV21"/>
+      <c r="CW21"/>
+      <c r="CX21"/>
+      <c r="CY21"/>
+      <c r="CZ21"/>
+      <c r="DA21"/>
+      <c r="DB21"/>
+      <c r="DC21"/>
+      <c r="DD21"/>
+      <c r="DE21"/>
+      <c r="DF21"/>
+      <c r="DG21"/>
+      <c r="DH21"/>
+      <c r="DI21"/>
+      <c r="DJ21"/>
+      <c r="DK21"/>
+      <c r="DL21"/>
+      <c r="DM21"/>
+      <c r="DN21"/>
+      <c r="DO21"/>
+      <c r="DP21"/>
+      <c r="DQ21"/>
+      <c r="DR21"/>
+      <c r="DS21"/>
+      <c r="DT21"/>
+      <c r="DU21"/>
+      <c r="DV21"/>
+      <c r="DW21"/>
+      <c r="DX21"/>
+      <c r="DY21"/>
+      <c r="DZ21"/>
+      <c r="EA21"/>
+      <c r="EB21"/>
+      <c r="EC21"/>
+      <c r="ED21"/>
+      <c r="EE21"/>
+      <c r="EF21"/>
+      <c r="EG21"/>
+      <c r="EH21"/>
+      <c r="EI21"/>
+      <c r="EJ21"/>
+      <c r="EK21"/>
+      <c r="EL21"/>
+      <c r="EM21"/>
+      <c r="EN21"/>
+      <c r="EO21"/>
+      <c r="EP21"/>
+      <c r="EQ21"/>
+      <c r="ER21"/>
+      <c r="ES21"/>
+      <c r="ET21"/>
+      <c r="EU21"/>
+      <c r="EV21"/>
+      <c r="EW21"/>
+      <c r="EX21"/>
+      <c r="EY21"/>
+      <c r="EZ21"/>
+      <c r="FA21"/>
+      <c r="FB21"/>
+      <c r="FC21"/>
+      <c r="FD21"/>
+      <c r="FE21"/>
+      <c r="FF21"/>
+    </row>
+    <row r="22" spans="1:162" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22"/>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BX22"/>
+      <c r="BY22"/>
+      <c r="BZ22"/>
+      <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CD22"/>
+      <c r="CE22"/>
+      <c r="CF22"/>
+      <c r="CG22"/>
+      <c r="CH22"/>
+      <c r="CI22"/>
+      <c r="CJ22"/>
+      <c r="CK22"/>
+      <c r="CL22"/>
+      <c r="CM22"/>
+      <c r="CN22"/>
+      <c r="CO22"/>
+      <c r="CP22"/>
+      <c r="CQ22"/>
+      <c r="CR22"/>
+      <c r="CS22"/>
+      <c r="CT22"/>
+      <c r="CU22"/>
+      <c r="CV22"/>
+      <c r="CW22"/>
+      <c r="CX22"/>
+      <c r="CY22"/>
+      <c r="CZ22"/>
+      <c r="DA22"/>
+      <c r="DB22"/>
+      <c r="DC22"/>
+      <c r="DD22"/>
+      <c r="DE22"/>
+      <c r="DF22"/>
+      <c r="DG22"/>
+      <c r="DH22"/>
+      <c r="DI22"/>
+      <c r="DJ22"/>
+      <c r="DK22"/>
+      <c r="DL22"/>
+      <c r="DM22"/>
+      <c r="DN22"/>
+      <c r="DO22"/>
+      <c r="DP22"/>
+      <c r="DQ22"/>
+      <c r="DR22"/>
+      <c r="DS22"/>
+      <c r="DT22"/>
+      <c r="DU22"/>
+      <c r="DV22"/>
+      <c r="DW22"/>
+      <c r="DX22"/>
+      <c r="DY22"/>
+      <c r="DZ22"/>
+      <c r="EA22"/>
+      <c r="EB22"/>
+      <c r="EC22"/>
+      <c r="ED22"/>
+      <c r="EE22"/>
+      <c r="EF22"/>
+      <c r="EG22"/>
+      <c r="EH22"/>
+      <c r="EI22"/>
+      <c r="EJ22"/>
+      <c r="EK22"/>
+      <c r="EL22"/>
+      <c r="EM22"/>
+      <c r="EN22"/>
+      <c r="EO22"/>
+      <c r="EP22"/>
+      <c r="EQ22"/>
+      <c r="ER22"/>
+      <c r="ES22"/>
+      <c r="ET22"/>
+      <c r="EU22"/>
+      <c r="EV22"/>
+      <c r="EW22"/>
+      <c r="EX22"/>
+      <c r="EY22"/>
+      <c r="EZ22"/>
+      <c r="FA22"/>
+      <c r="FB22"/>
+      <c r="FC22"/>
+      <c r="FD22"/>
+      <c r="FE22"/>
+      <c r="FF22"/>
+    </row>
+    <row r="23" spans="1:162" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+      <c r="BW23"/>
+      <c r="BX23"/>
+      <c r="BY23"/>
+      <c r="BZ23"/>
+      <c r="CA23"/>
+      <c r="CB23"/>
+      <c r="CC23"/>
+      <c r="CD23"/>
+      <c r="CE23"/>
+      <c r="CF23"/>
+      <c r="CG23"/>
+      <c r="CH23"/>
+      <c r="CI23"/>
+      <c r="CJ23"/>
+      <c r="CK23"/>
+      <c r="CL23"/>
+      <c r="CM23"/>
+      <c r="CN23"/>
+      <c r="CO23"/>
+      <c r="CP23"/>
+      <c r="CQ23"/>
+      <c r="CR23"/>
+      <c r="CS23"/>
+      <c r="CT23"/>
+      <c r="CU23"/>
+      <c r="CV23"/>
+      <c r="CW23"/>
+      <c r="CX23"/>
+      <c r="CY23"/>
+      <c r="CZ23"/>
+      <c r="DA23"/>
+      <c r="DB23"/>
+      <c r="DC23"/>
+      <c r="DD23"/>
+      <c r="DE23"/>
+      <c r="DF23"/>
+      <c r="DG23"/>
+      <c r="DH23"/>
+      <c r="DI23"/>
+      <c r="DJ23"/>
+      <c r="DK23"/>
+      <c r="DL23"/>
+      <c r="DM23"/>
+      <c r="DN23"/>
+      <c r="DO23"/>
+      <c r="DP23"/>
+      <c r="DQ23"/>
+      <c r="DR23"/>
+      <c r="DS23"/>
+      <c r="DT23"/>
+      <c r="DU23"/>
+      <c r="DV23"/>
+      <c r="DW23"/>
+      <c r="DX23"/>
+      <c r="DY23"/>
+      <c r="DZ23"/>
+      <c r="EA23"/>
+      <c r="EB23"/>
+      <c r="EC23"/>
+      <c r="ED23"/>
+      <c r="EE23"/>
+      <c r="EF23"/>
+      <c r="EG23"/>
+      <c r="EH23"/>
+      <c r="EI23"/>
+      <c r="EJ23"/>
+      <c r="EK23"/>
+      <c r="EL23"/>
+      <c r="EM23"/>
+      <c r="EN23"/>
+      <c r="EO23"/>
+      <c r="EP23"/>
+      <c r="EQ23"/>
+      <c r="ER23"/>
+      <c r="ES23"/>
+      <c r="ET23"/>
+      <c r="EU23"/>
+      <c r="EV23"/>
+      <c r="EW23"/>
+      <c r="EX23"/>
+      <c r="EY23"/>
+      <c r="EZ23"/>
+      <c r="FA23"/>
+      <c r="FB23"/>
+      <c r="FC23"/>
+      <c r="FD23"/>
+      <c r="FE23"/>
+      <c r="FF23"/>
+    </row>
+    <row r="24" spans="1:162" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
+      <c r="CF24"/>
+      <c r="CG24"/>
+      <c r="CH24"/>
+      <c r="CI24"/>
+      <c r="CJ24"/>
+      <c r="CK24"/>
+      <c r="CL24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CO24"/>
+      <c r="CP24"/>
+      <c r="CQ24"/>
+      <c r="CR24"/>
+      <c r="CS24"/>
+      <c r="CT24"/>
+      <c r="CU24"/>
+      <c r="CV24"/>
+      <c r="CW24"/>
+      <c r="CX24"/>
+      <c r="CY24"/>
+      <c r="CZ24"/>
+      <c r="DA24"/>
+      <c r="DB24"/>
+      <c r="DC24"/>
+      <c r="DD24"/>
+      <c r="DE24"/>
+      <c r="DF24"/>
+      <c r="DG24"/>
+      <c r="DH24"/>
+      <c r="DI24"/>
+      <c r="DJ24"/>
+      <c r="DK24"/>
+      <c r="DL24"/>
+      <c r="DM24"/>
+      <c r="DN24"/>
+      <c r="DO24"/>
+      <c r="DP24"/>
+      <c r="DQ24"/>
+      <c r="DR24"/>
+      <c r="DS24"/>
+      <c r="DT24"/>
+      <c r="DU24"/>
+      <c r="DV24"/>
+      <c r="DW24"/>
+      <c r="DX24"/>
+      <c r="DY24"/>
+      <c r="DZ24"/>
+      <c r="EA24"/>
+      <c r="EB24"/>
+      <c r="EC24"/>
+      <c r="ED24"/>
+      <c r="EE24"/>
+      <c r="EF24"/>
+      <c r="EG24"/>
+      <c r="EH24"/>
+      <c r="EI24"/>
+      <c r="EJ24"/>
+      <c r="EK24"/>
+      <c r="EL24"/>
+      <c r="EM24"/>
+      <c r="EN24"/>
+      <c r="EO24"/>
+      <c r="EP24"/>
+      <c r="EQ24"/>
+      <c r="ER24"/>
+      <c r="ES24"/>
+      <c r="ET24"/>
+      <c r="EU24"/>
+      <c r="EV24"/>
+      <c r="EW24"/>
+      <c r="EX24"/>
+      <c r="EY24"/>
+      <c r="EZ24"/>
+      <c r="FA24"/>
+      <c r="FB24"/>
+      <c r="FC24"/>
+      <c r="FD24"/>
+      <c r="FE24"/>
+      <c r="FF24"/>
+    </row>
+    <row r="25" spans="1:162" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
+      <c r="BM25"/>
+      <c r="BN25"/>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25"/>
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25"/>
+      <c r="BU25"/>
+      <c r="BV25"/>
+      <c r="BW25"/>
+      <c r="BX25"/>
+      <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25"/>
+      <c r="CF25"/>
+      <c r="CG25"/>
+      <c r="CH25"/>
+      <c r="CI25"/>
+      <c r="CJ25"/>
+      <c r="CK25"/>
+      <c r="CL25"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CO25"/>
+      <c r="CP25"/>
+      <c r="CQ25"/>
+      <c r="CR25"/>
+      <c r="CS25"/>
+      <c r="CT25"/>
+      <c r="CU25"/>
+      <c r="CV25"/>
+      <c r="CW25"/>
+      <c r="CX25"/>
+      <c r="CY25"/>
+      <c r="CZ25"/>
+      <c r="DA25"/>
+      <c r="DB25"/>
+      <c r="DC25"/>
+      <c r="DD25"/>
+      <c r="DE25"/>
+      <c r="DF25"/>
+      <c r="DG25"/>
+      <c r="DH25"/>
+      <c r="DI25"/>
+      <c r="DJ25"/>
+      <c r="DK25"/>
+      <c r="DL25"/>
+      <c r="DM25"/>
+      <c r="DN25"/>
+      <c r="DO25"/>
+      <c r="DP25"/>
+      <c r="DQ25"/>
+      <c r="DR25"/>
+      <c r="DS25"/>
+      <c r="DT25"/>
+      <c r="DU25"/>
+      <c r="DV25"/>
+      <c r="DW25"/>
+      <c r="DX25"/>
+      <c r="DY25"/>
+      <c r="DZ25"/>
+      <c r="EA25"/>
+      <c r="EB25"/>
+      <c r="EC25"/>
+      <c r="ED25"/>
+      <c r="EE25"/>
+      <c r="EF25"/>
+      <c r="EG25"/>
+      <c r="EH25"/>
+      <c r="EI25"/>
+      <c r="EJ25"/>
+      <c r="EK25"/>
+      <c r="EL25"/>
+      <c r="EM25"/>
+      <c r="EN25"/>
+      <c r="EO25"/>
+      <c r="EP25"/>
+      <c r="EQ25"/>
+      <c r="ER25"/>
+      <c r="ES25"/>
+      <c r="ET25"/>
+      <c r="EU25"/>
+      <c r="EV25"/>
+      <c r="EW25"/>
+      <c r="EX25"/>
+      <c r="EY25"/>
+      <c r="EZ25"/>
+      <c r="FA25"/>
+      <c r="FB25"/>
+      <c r="FC25"/>
+      <c r="FD25"/>
+      <c r="FE25"/>
+      <c r="FF25"/>
+    </row>
+    <row r="26" spans="1:162" s="23" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26"/>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BX26"/>
+      <c r="BY26"/>
+      <c r="BZ26"/>
+      <c r="CA26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
+      <c r="CD26"/>
+      <c r="CE26"/>
+      <c r="CF26"/>
+      <c r="CG26"/>
+      <c r="CH26"/>
+      <c r="CI26"/>
+      <c r="CJ26"/>
+      <c r="CK26"/>
+      <c r="CL26"/>
+      <c r="CM26"/>
+      <c r="CN26"/>
+      <c r="CO26"/>
+      <c r="CP26"/>
+      <c r="CQ26"/>
+      <c r="CR26"/>
+      <c r="CS26"/>
+      <c r="CT26"/>
+      <c r="CU26"/>
+      <c r="CV26"/>
+      <c r="CW26"/>
+      <c r="CX26"/>
+      <c r="CY26"/>
+      <c r="CZ26"/>
+      <c r="DA26"/>
+      <c r="DB26"/>
+      <c r="DC26"/>
+      <c r="DD26"/>
+      <c r="DE26"/>
+      <c r="DF26"/>
+      <c r="DG26"/>
+      <c r="DH26"/>
+      <c r="DI26"/>
+      <c r="DJ26"/>
+      <c r="DK26"/>
+      <c r="DL26"/>
+      <c r="DM26"/>
+      <c r="DN26"/>
+      <c r="DO26"/>
+      <c r="DP26"/>
+      <c r="DQ26"/>
+      <c r="DR26"/>
+      <c r="DS26"/>
+      <c r="DT26"/>
+      <c r="DU26"/>
+      <c r="DV26"/>
+      <c r="DW26"/>
+      <c r="DX26"/>
+      <c r="DY26"/>
+      <c r="DZ26"/>
+      <c r="EA26"/>
+      <c r="EB26"/>
+      <c r="EC26"/>
+      <c r="ED26"/>
+      <c r="EE26"/>
+      <c r="EF26"/>
+      <c r="EG26"/>
+      <c r="EH26"/>
+      <c r="EI26"/>
+      <c r="EJ26"/>
+      <c r="EK26"/>
+      <c r="EL26"/>
+      <c r="EM26"/>
+      <c r="EN26"/>
+      <c r="EO26"/>
+      <c r="EP26"/>
+      <c r="EQ26"/>
+      <c r="ER26"/>
+      <c r="ES26"/>
+      <c r="ET26"/>
+      <c r="EU26"/>
+      <c r="EV26"/>
+      <c r="EW26"/>
+      <c r="EX26"/>
+      <c r="EY26"/>
+      <c r="EZ26"/>
+      <c r="FA26"/>
+      <c r="FB26"/>
+      <c r="FC26"/>
+      <c r="FD26"/>
+      <c r="FE26"/>
+      <c r="FF26"/>
+    </row>
+    <row r="27" spans="1:162" s="23" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27"/>
+      <c r="BU27"/>
+      <c r="BV27"/>
+      <c r="BW27"/>
+      <c r="BX27"/>
+      <c r="BY27"/>
+      <c r="BZ27"/>
+      <c r="CA27"/>
+      <c r="CB27"/>
+      <c r="CC27"/>
+      <c r="CD27"/>
+      <c r="CE27"/>
+      <c r="CF27"/>
+      <c r="CG27"/>
+      <c r="CH27"/>
+      <c r="CI27"/>
+      <c r="CJ27"/>
+      <c r="CK27"/>
+      <c r="CL27"/>
+      <c r="CM27"/>
+      <c r="CN27"/>
+      <c r="CO27"/>
+      <c r="CP27"/>
+      <c r="CQ27"/>
+      <c r="CR27"/>
+      <c r="CS27"/>
+      <c r="CT27"/>
+      <c r="CU27"/>
+      <c r="CV27"/>
+      <c r="CW27"/>
+      <c r="CX27"/>
+      <c r="CY27"/>
+      <c r="CZ27"/>
+      <c r="DA27"/>
+      <c r="DB27"/>
+      <c r="DC27"/>
+      <c r="DD27"/>
+      <c r="DE27"/>
+      <c r="DF27"/>
+      <c r="DG27"/>
+      <c r="DH27"/>
+      <c r="DI27"/>
+      <c r="DJ27"/>
+      <c r="DK27"/>
+      <c r="DL27"/>
+      <c r="DM27"/>
+      <c r="DN27"/>
+      <c r="DO27"/>
+      <c r="DP27"/>
+      <c r="DQ27"/>
+      <c r="DR27"/>
+      <c r="DS27"/>
+      <c r="DT27"/>
+      <c r="DU27"/>
+      <c r="DV27"/>
+      <c r="DW27"/>
+      <c r="DX27"/>
+      <c r="DY27"/>
+      <c r="DZ27"/>
+      <c r="EA27"/>
+      <c r="EB27"/>
+      <c r="EC27"/>
+      <c r="ED27"/>
+      <c r="EE27"/>
+      <c r="EF27"/>
+      <c r="EG27"/>
+      <c r="EH27"/>
+      <c r="EI27"/>
+      <c r="EJ27"/>
+      <c r="EK27"/>
+      <c r="EL27"/>
+      <c r="EM27"/>
+      <c r="EN27"/>
+      <c r="EO27"/>
+      <c r="EP27"/>
+      <c r="EQ27"/>
+      <c r="ER27"/>
+      <c r="ES27"/>
+      <c r="ET27"/>
+      <c r="EU27"/>
+      <c r="EV27"/>
+      <c r="EW27"/>
+      <c r="EX27"/>
+      <c r="EY27"/>
+      <c r="EZ27"/>
+      <c r="FA27"/>
+      <c r="FB27"/>
+      <c r="FC27"/>
+      <c r="FD27"/>
+      <c r="FE27"/>
+      <c r="FF27"/>
+    </row>
+    <row r="28" spans="1:162" s="25" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
+      <c r="CD28"/>
+      <c r="CE28"/>
+      <c r="CF28"/>
+      <c r="CG28"/>
+      <c r="CH28"/>
+      <c r="CI28"/>
+      <c r="CJ28"/>
+      <c r="CK28"/>
+      <c r="CL28"/>
+      <c r="CM28"/>
+      <c r="CN28"/>
+      <c r="CO28"/>
+      <c r="CP28"/>
+      <c r="CQ28"/>
+      <c r="CR28"/>
+      <c r="CS28"/>
+      <c r="CT28"/>
+      <c r="CU28"/>
+      <c r="CV28"/>
+      <c r="CW28"/>
+      <c r="CX28"/>
+      <c r="CY28"/>
+      <c r="CZ28"/>
+      <c r="DA28"/>
+      <c r="DB28"/>
+      <c r="DC28"/>
+      <c r="DD28"/>
+      <c r="DE28"/>
+      <c r="DF28"/>
+      <c r="DG28"/>
+      <c r="DH28"/>
+      <c r="DI28"/>
+      <c r="DJ28"/>
+      <c r="DK28"/>
+      <c r="DL28"/>
+      <c r="DM28"/>
+      <c r="DN28"/>
+      <c r="DO28"/>
+      <c r="DP28"/>
+      <c r="DQ28"/>
+      <c r="DR28"/>
+      <c r="DS28"/>
+      <c r="DT28"/>
+      <c r="DU28"/>
+      <c r="DV28"/>
+      <c r="DW28"/>
+      <c r="DX28"/>
+      <c r="DY28"/>
+      <c r="DZ28"/>
+      <c r="EA28"/>
+      <c r="EB28"/>
+      <c r="EC28"/>
+      <c r="ED28"/>
+      <c r="EE28"/>
+      <c r="EF28"/>
+      <c r="EG28"/>
+      <c r="EH28"/>
+      <c r="EI28"/>
+      <c r="EJ28"/>
+      <c r="EK28"/>
+      <c r="EL28"/>
+      <c r="EM28"/>
+      <c r="EN28"/>
+      <c r="EO28"/>
+      <c r="EP28"/>
+      <c r="EQ28"/>
+      <c r="ER28"/>
+      <c r="ES28"/>
+      <c r="ET28"/>
+      <c r="EU28"/>
+      <c r="EV28"/>
+      <c r="EW28"/>
+      <c r="EX28"/>
+      <c r="EY28"/>
+      <c r="EZ28"/>
+      <c r="FA28"/>
+      <c r="FB28"/>
+      <c r="FC28"/>
+      <c r="FD28"/>
+      <c r="FE28"/>
+      <c r="FF28"/>
+    </row>
+    <row r="29" spans="1:162" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
+      <c r="CD29"/>
+      <c r="CE29"/>
+      <c r="CF29"/>
+      <c r="CG29"/>
+      <c r="CH29"/>
+      <c r="CI29"/>
+      <c r="CJ29"/>
+      <c r="CK29"/>
+      <c r="CL29"/>
+      <c r="CM29"/>
+      <c r="CN29"/>
+      <c r="CO29"/>
+      <c r="CP29"/>
+      <c r="CQ29"/>
+      <c r="CR29"/>
+      <c r="CS29"/>
+      <c r="CT29"/>
+      <c r="CU29"/>
+      <c r="CV29"/>
+      <c r="CW29"/>
+      <c r="CX29"/>
+      <c r="CY29"/>
+      <c r="CZ29"/>
+      <c r="DA29"/>
+      <c r="DB29"/>
+      <c r="DC29"/>
+      <c r="DD29"/>
+      <c r="DE29"/>
+      <c r="DF29"/>
+      <c r="DG29"/>
+      <c r="DH29"/>
+      <c r="DI29"/>
+      <c r="DJ29"/>
+      <c r="DK29"/>
+      <c r="DL29"/>
+      <c r="DM29"/>
+      <c r="DN29"/>
+      <c r="DO29"/>
+      <c r="DP29"/>
+      <c r="DQ29"/>
+      <c r="DR29"/>
+      <c r="DS29"/>
+      <c r="DT29"/>
+      <c r="DU29"/>
+      <c r="DV29"/>
+      <c r="DW29"/>
+      <c r="DX29"/>
+      <c r="DY29"/>
+      <c r="DZ29"/>
+      <c r="EA29"/>
+      <c r="EB29"/>
+      <c r="EC29"/>
+      <c r="ED29"/>
+      <c r="EE29"/>
+      <c r="EF29"/>
+      <c r="EG29"/>
+      <c r="EH29"/>
+      <c r="EI29"/>
+      <c r="EJ29"/>
+      <c r="EK29"/>
+      <c r="EL29"/>
+      <c r="EM29"/>
+      <c r="EN29"/>
+      <c r="EO29"/>
+      <c r="EP29"/>
+      <c r="EQ29"/>
+      <c r="ER29"/>
+      <c r="ES29"/>
+      <c r="ET29"/>
+      <c r="EU29"/>
+      <c r="EV29"/>
+      <c r="EW29"/>
+      <c r="EX29"/>
+      <c r="EY29"/>
+      <c r="EZ29"/>
+      <c r="FA29"/>
+      <c r="FB29"/>
+      <c r="FC29"/>
+      <c r="FD29"/>
+      <c r="FE29"/>
+      <c r="FF29"/>
+    </row>
+    <row r="30" spans="1:162" s="27" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+      <c r="BL30"/>
+      <c r="BM30"/>
+      <c r="BN30"/>
+      <c r="BO30"/>
+      <c r="BP30"/>
+      <c r="BQ30"/>
+      <c r="BR30"/>
+      <c r="BS30"/>
+      <c r="BT30"/>
+      <c r="BU30"/>
+      <c r="BV30"/>
+      <c r="BW30"/>
+      <c r="BX30"/>
+      <c r="BY30"/>
+      <c r="BZ30"/>
+      <c r="CA30"/>
+      <c r="CB30"/>
+      <c r="CC30"/>
+      <c r="CD30"/>
+      <c r="CE30"/>
+      <c r="CF30"/>
+      <c r="CG30"/>
+      <c r="CH30"/>
+      <c r="CI30"/>
+      <c r="CJ30"/>
+      <c r="CK30"/>
+      <c r="CL30"/>
+      <c r="CM30"/>
+      <c r="CN30"/>
+      <c r="CO30"/>
+      <c r="CP30"/>
+      <c r="CQ30"/>
+      <c r="CR30"/>
+      <c r="CS30"/>
+      <c r="CT30"/>
+      <c r="CU30"/>
+      <c r="CV30"/>
+      <c r="CW30"/>
+      <c r="CX30"/>
+      <c r="CY30"/>
+      <c r="CZ30"/>
+      <c r="DA30"/>
+      <c r="DB30"/>
+      <c r="DC30"/>
+      <c r="DD30"/>
+      <c r="DE30"/>
+      <c r="DF30"/>
+      <c r="DG30"/>
+      <c r="DH30"/>
+      <c r="DI30"/>
+      <c r="DJ30"/>
+      <c r="DK30"/>
+      <c r="DL30"/>
+      <c r="DM30"/>
+      <c r="DN30"/>
+      <c r="DO30"/>
+      <c r="DP30"/>
+      <c r="DQ30"/>
+      <c r="DR30"/>
+      <c r="DS30"/>
+      <c r="DT30"/>
+      <c r="DU30"/>
+      <c r="DV30"/>
+      <c r="DW30"/>
+      <c r="DX30"/>
+      <c r="DY30"/>
+      <c r="DZ30"/>
+      <c r="EA30"/>
+      <c r="EB30"/>
+      <c r="EC30"/>
+      <c r="ED30"/>
+      <c r="EE30"/>
+      <c r="EF30"/>
+      <c r="EG30"/>
+      <c r="EH30"/>
+      <c r="EI30"/>
+      <c r="EJ30"/>
+      <c r="EK30"/>
+      <c r="EL30"/>
+      <c r="EM30"/>
+      <c r="EN30"/>
+      <c r="EO30"/>
+      <c r="EP30"/>
+      <c r="EQ30"/>
+      <c r="ER30"/>
+      <c r="ES30"/>
+      <c r="ET30"/>
+      <c r="EU30"/>
+      <c r="EV30"/>
+      <c r="EW30"/>
+      <c r="EX30"/>
+      <c r="EY30"/>
+      <c r="EZ30"/>
+      <c r="FA30"/>
+      <c r="FB30"/>
+      <c r="FC30"/>
+      <c r="FD30"/>
+      <c r="FE30"/>
+      <c r="FF30"/>
+    </row>
+    <row r="31" spans="1:162" s="27" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31"/>
+      <c r="BQ31"/>
+      <c r="BR31"/>
+      <c r="BS31"/>
+      <c r="BT31"/>
+      <c r="BU31"/>
+      <c r="BV31"/>
+      <c r="BW31"/>
+      <c r="BX31"/>
+      <c r="BY31"/>
+      <c r="BZ31"/>
+      <c r="CA31"/>
+      <c r="CB31"/>
+      <c r="CC31"/>
+      <c r="CD31"/>
+      <c r="CE31"/>
+      <c r="CF31"/>
+      <c r="CG31"/>
+      <c r="CH31"/>
+      <c r="CI31"/>
+      <c r="CJ31"/>
+      <c r="CK31"/>
+      <c r="CL31"/>
+      <c r="CM31"/>
+      <c r="CN31"/>
+      <c r="CO31"/>
+      <c r="CP31"/>
+      <c r="CQ31"/>
+      <c r="CR31"/>
+      <c r="CS31"/>
+      <c r="CT31"/>
+      <c r="CU31"/>
+      <c r="CV31"/>
+      <c r="CW31"/>
+      <c r="CX31"/>
+      <c r="CY31"/>
+      <c r="CZ31"/>
+      <c r="DA31"/>
+      <c r="DB31"/>
+      <c r="DC31"/>
+      <c r="DD31"/>
+      <c r="DE31"/>
+      <c r="DF31"/>
+      <c r="DG31"/>
+      <c r="DH31"/>
+      <c r="DI31"/>
+      <c r="DJ31"/>
+      <c r="DK31"/>
+      <c r="DL31"/>
+      <c r="DM31"/>
+      <c r="DN31"/>
+      <c r="DO31"/>
+      <c r="DP31"/>
+      <c r="DQ31"/>
+      <c r="DR31"/>
+      <c r="DS31"/>
+      <c r="DT31"/>
+      <c r="DU31"/>
+      <c r="DV31"/>
+      <c r="DW31"/>
+      <c r="DX31"/>
+      <c r="DY31"/>
+      <c r="DZ31"/>
+      <c r="EA31"/>
+      <c r="EB31"/>
+      <c r="EC31"/>
+      <c r="ED31"/>
+      <c r="EE31"/>
+      <c r="EF31"/>
+      <c r="EG31"/>
+      <c r="EH31"/>
+      <c r="EI31"/>
+      <c r="EJ31"/>
+      <c r="EK31"/>
+      <c r="EL31"/>
+      <c r="EM31"/>
+      <c r="EN31"/>
+      <c r="EO31"/>
+      <c r="EP31"/>
+      <c r="EQ31"/>
+      <c r="ER31"/>
+      <c r="ES31"/>
+      <c r="ET31"/>
+      <c r="EU31"/>
+      <c r="EV31"/>
+      <c r="EW31"/>
+      <c r="EX31"/>
+      <c r="EY31"/>
+      <c r="EZ31"/>
+      <c r="FA31"/>
+      <c r="FB31"/>
+      <c r="FC31"/>
+      <c r="FD31"/>
+      <c r="FE31"/>
+      <c r="FF31"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C13:C15"/>
+  <mergeCells count="24">
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
@@ -1285,6 +5799,21 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1293,99 +5822,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A41F06-69AF-954A-9966-A89ACEA8FA3E}">
-  <dimension ref="B5:F12"/>
+  <dimension ref="B4:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
+      <c r="C7" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="86"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C9" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="69"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="83"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="84"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="85"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="48"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="73"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="22">
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1394,8 +6169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6AEE5D-AB26-904B-87C9-75A28712E29E}">
   <dimension ref="B5:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,95 +6184,97 @@
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="43" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="26"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="26"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1513,11 +6290,125 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BA6A8-75B3-6548-AE6E-629E509C2EE0}">
-  <dimension ref="B5:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E7DD68-36AA-3E4E-A950-6CB781A40254}">
+  <dimension ref="B5:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="2:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BA6A8-75B3-6548-AE6E-629E509C2EE0}">
+  <dimension ref="B5:G20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1529,121 +6420,188 @@
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="19" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="4" t="s">
+      <c r="F7" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="4" t="s">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="4" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="4" t="s">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="4" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="4" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C5:C6"/>
+  <mergeCells count="8">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>